--- a/app/input_data/Wafflechart.xlsx
+++ b/app/input_data/Wafflechart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ISEAL 2012-2013 and postdoc 2017-2019\VU postdoc research fellowship\Postdoc projects\Muscle epigenetic clock and exercise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ISEAL 2012-2013 and postdoc 2017-2019\Projects\EWAS meta-analysis of age\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="32">
   <si>
     <t>FUSION</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Thomis</t>
+  </si>
+  <si>
+    <t>EPIK</t>
   </si>
 </sst>
 </file>
@@ -506,7 +509,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -627,16 +630,17 @@
         <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="5">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D7" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="8">
-        <v>11</v>
+        <f>C7-D7</f>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
